--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="443">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Thrombolysis Procedure Profile (R5)</t>
+    <t>Stroke Thrombolysis Procedure Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,20 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Procedure profile to record key stroke procedures, including status, timing, complications, reasons, and context.</t>
+    <t xml:space="preserve">Profile for documenting **stroke reperfusion procedures** as FHIR Procedure:
+- IV thrombolysis (IVT)
+- Mechanical thrombectomy (MT)
+**Captures**
+- `code`: restricted to reperfusion procedures (PerforationProceduresVS).
+- `status`: completed/not-done/etc.
+- `statusReason`: controlled reason set when not done.
+- `occurrence[x]` (constrained to Period): start/end time of the intervention when available.
+- `complication`: complications (as CodeableReference to Condition) — constrained by invariants.
+- `extension[timingContext]`: acute/post-acute phase classification.
+**Use-cases**
+- Time-to-treatment metrics (door-to-needle, door-to-groin), service evaluation.
+- Structured documentation of “why not treated” for QI programs.
+- Safety monitoring for procedural complications. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -465,6 +478,20 @@
   <si>
     <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/procedure-timing-context-ext}
 </t>
+  </si>
+  <si>
+    <t>Procedure Timing Context Extension</t>
+  </si>
+  <si>
+    <t>Extension classifying the procedure into a **timing context** relative to encounter start (acute/post-acute).
+**Primary use-case**
+- Operational reporting where “phase of care” is needed for compliance measures.
+**When to use**
+- When you want a stable, comparable phase label across sites (even if absolute times differ or onset time is uncertain).
+**Interpretation guidance**
+- Use `acute` for procedures within 24 hours of encounter start.
+- Use `post-acute` for procedures after 24 hours.
+- Use `unknown` when encounter/timing data are insufficient.</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -2824,10 +2851,10 @@
         <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2907,14 +2934,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2936,16 +2963,16 @@
         <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2994,7 +3021,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3023,10 +3050,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3049,19 +3076,19 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3110,7 +3137,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3125,24 +3152,24 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3165,13 +3192,13 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3222,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3237,13 +3264,13 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>20</v>
@@ -3251,10 +3278,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3280,13 +3307,13 @@
         <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3336,7 +3363,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3351,13 +3378,13 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -3365,14 +3392,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3391,13 +3418,13 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3448,7 +3475,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3463,13 +3490,13 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3477,14 +3504,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3503,16 +3530,16 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3562,7 +3589,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3577,24 +3604,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3620,13 +3647,13 @@
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3656,7 +3683,7 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3674,7 +3701,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
@@ -3689,13 +3716,13 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
@@ -3703,14 +3730,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3729,16 +3756,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3768,7 +3795,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3786,7 +3813,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3801,13 +3828,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3815,10 +3842,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3841,13 +3868,13 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3874,13 +3901,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3898,7 +3925,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3916,25 +3943,25 @@
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3953,17 +3980,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3992,7 +4019,7 @@
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4010,7 +4037,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4025,28 +4052,28 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4065,13 +4092,13 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4122,7 +4149,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
@@ -4137,24 +4164,24 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4177,13 +4204,13 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4234,7 +4261,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4252,7 +4279,7 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4263,10 +4290,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4289,16 +4316,16 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4348,7 +4375,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4363,24 +4390,24 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4403,16 +4430,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4462,7 +4489,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4477,24 +4504,24 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4520,10 +4547,10 @@
         <v>89</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4574,7 +4601,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4583,7 +4610,7 @@
         <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>20</v>
@@ -4595,7 +4622,7 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4603,14 +4630,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4632,13 +4659,13 @@
         <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4679,7 +4706,7 @@
         <v>137</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
@@ -4688,7 +4715,7 @@
         <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4709,7 +4736,7 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4717,10 +4744,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4743,16 +4770,16 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4802,7 +4829,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4811,7 +4838,7 @@
         <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>99</v>
@@ -4823,18 +4850,18 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4857,23 +4884,23 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>20</v>
@@ -4918,7 +4945,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4927,7 +4954,7 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>99</v>
@@ -4939,18 +4966,18 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4973,13 +5000,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5030,7 +5057,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5045,13 +5072,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5059,10 +5086,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5085,13 +5112,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5142,7 +5169,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5160,10 +5187,10 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5171,14 +5198,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5197,17 +5224,17 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5256,7 +5283,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5271,13 +5298,13 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>20</v>
@@ -5285,10 +5312,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5311,13 +5338,13 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5368,7 +5395,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5380,16 +5407,16 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5397,10 +5424,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5423,13 +5450,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5480,7 +5507,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5489,7 +5516,7 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>20</v>
@@ -5501,7 +5528,7 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>20</v>
@@ -5509,14 +5536,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5538,13 +5565,13 @@
         <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5594,7 +5621,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5615,7 +5642,7 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
@@ -5623,14 +5650,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5652,16 +5679,16 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5710,7 +5737,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5739,10 +5766,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5765,17 +5792,17 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5800,13 +5827,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -5824,7 +5851,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5839,24 +5866,24 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5879,17 +5906,17 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5938,7 +5965,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>87</v>
@@ -5947,30 +5974,30 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5993,19 +6020,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6054,7 +6081,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6063,7 +6090,7 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>99</v>
@@ -6075,7 +6102,7 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -6083,10 +6110,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6109,13 +6136,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6166,7 +6193,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6195,10 +6222,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6221,13 +6248,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6278,7 +6305,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6296,21 +6323,21 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6333,16 +6360,16 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6368,13 +6395,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6392,7 +6419,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6407,24 +6434,24 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6447,16 +6474,16 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6482,13 +6509,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6506,7 +6533,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6527,18 +6554,18 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6561,16 +6588,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6596,13 +6623,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6620,7 +6647,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6641,7 +6668,7 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -6649,10 +6676,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6675,16 +6702,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6734,7 +6761,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6755,7 +6782,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -6763,10 +6790,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6789,16 +6816,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6824,13 +6851,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6848,7 +6875,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6869,7 +6896,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -6877,10 +6904,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6903,13 +6930,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6936,13 +6963,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -6960,7 +6987,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6981,7 +7008,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -6989,10 +7016,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7015,13 +7042,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7072,7 +7099,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7087,24 +7114,24 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7127,13 +7154,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7184,7 +7211,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7205,7 +7232,7 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -7213,10 +7240,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7239,13 +7266,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7296,7 +7323,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7305,7 +7332,7 @@
         <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>20</v>
@@ -7317,7 +7344,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -7325,14 +7352,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7354,13 +7381,13 @@
         <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7410,7 +7437,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7431,7 +7458,7 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -7439,14 +7466,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7468,16 +7495,16 @@
         <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7526,7 +7553,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7555,10 +7582,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7581,13 +7608,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7614,13 +7641,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7638,7 +7665,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7659,7 +7686,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -7667,10 +7694,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7693,13 +7720,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7750,7 +7777,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>87</v>
@@ -7771,7 +7798,7 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -7779,10 +7806,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7805,19 +7832,19 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7842,13 +7869,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7866,7 +7893,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7887,7 +7914,7 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>20</v>
@@ -7895,10 +7922,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7921,13 +7948,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7978,7 +8005,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7999,7 +8026,7 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,10 +94,12 @@
 - `occurrence[x]` (constrained to Period): start/end time of the intervention when available.
 - `complication`: complications (as CodeableReference to Condition) — constrained by invariants.
 - `extension[timingContext]`: acute/post-acute phase classification.
-**Use-cases**
-- Time-to-treatment metrics (door-to-needle, door-to-groin), service evaluation.
-- Structured documentation of “why not treated” for QI programs.
-- Safety monitoring for procedural complications. </t>
+**Typical scenarios**
+1) Reperfusion performed on-site: `status=completed`, `occurrence[x]` present, `timingContext` optional.
+2) Reperfusion not performed: `status=not-done`, `statusReason` required.
+3) Reperfusion performed elsewhere: `status=not-done`, `statusReason` = performedElsewhere, `occurrence[x]` optional.
+4) Reperfusion attempted but complicated by perforation: `status=completed`, `complication` = perforation code, `occurrence[x]` captures timing of the attempt.
+</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-mechanical-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
